--- a/Minute-Meeting-Schedule.xlsx
+++ b/Minute-Meeting-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{511BFB06-AE6D-4B7D-9F6A-818C89913BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F9EA2-E7D0-4A28-BF65-32A6AA785711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFA88D01-48A2-4320-A4A0-221617F2D68A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Sprint</t>
   </si>
@@ -63,55 +63,88 @@
     <t>Fatima, Rushba, Saad</t>
   </si>
   <si>
-    <t>GitHub branching issues, schema adjustments</t>
-  </si>
-  <si>
-    <t>Branching rules enforced, schema finalized</t>
-  </si>
-  <si>
-    <t>03:15 PM – 03:45 PM</t>
-  </si>
-  <si>
     <t>Full Team</t>
   </si>
   <si>
-    <t>UI inconsistencies, SEO confusion</t>
-  </si>
-  <si>
-    <t>Used templates, SEO responsibilities reassigned</t>
-  </si>
-  <si>
     <t>04:00 PM – 04:30 PM</t>
   </si>
   <si>
-    <t>Backend CRUD, API connection, MongoDB issues</t>
-  </si>
-  <si>
-    <t>Prioritized integration, deferred docs to Sprint 4</t>
-  </si>
-  <si>
-    <t>Ratings spam, email testing, API limits</t>
-  </si>
-  <si>
-    <t>Added spam control, tested emails, limited APIs</t>
-  </si>
-  <si>
-    <t>03:30 PM – 04:00 PM</t>
-  </si>
-  <si>
-    <t>Quiz logic issues, dashboard state sync</t>
-  </si>
-  <si>
-    <t>Refactored quiz schema, used hooks for sync</t>
-  </si>
-  <si>
-    <t>Heatmap tool setup, accessibility retesting</t>
-  </si>
-  <si>
-    <t>Mobile tested, Hotjar refined, WCAG checklist updated</t>
-  </si>
-  <si>
     <t>DevHub – Meeting Minutes Summary (Sprint 1 to 6)</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>Wed, Mar 5, 2025</t>
+  </si>
+  <si>
+    <t>04:00 PM – 04:45 PM</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
+    <t>GitHub setup, schema delays, branching confusion</t>
+  </si>
+  <si>
+    <t>Branching policy set, schema finalized</t>
+  </si>
+  <si>
+    <t>Wed, Mar 12, 2025</t>
+  </si>
+  <si>
+    <t>03:30 PM – 04:15 PM</t>
+  </si>
+  <si>
+    <t>UI planning, SEO basics, Figma templates usage</t>
+  </si>
+  <si>
+    <t>Tasks divided, SEO learning assigned</t>
+  </si>
+  <si>
+    <t>Wed, Mar 19, 2025</t>
+  </si>
+  <si>
+    <t>Backend CRUD status, integration, MongoDB design</t>
+  </si>
+  <si>
+    <t>Prioritized frontend/backend sync, deferred docs</t>
+  </si>
+  <si>
+    <t>Wed, Mar 26, 2025</t>
+  </si>
+  <si>
+    <t>Rating system, email reliability, social API limits</t>
+  </si>
+  <si>
+    <t>Added spam control, email testing, limited APIs</t>
+  </si>
+  <si>
+    <t>Wed, Apr 2, 2025</t>
+  </si>
+  <si>
+    <t>04:15 PM – 05:00 PM</t>
+  </si>
+  <si>
+    <t>Plan for quizzes, progress dashboard, interactive snippets</t>
+  </si>
+  <si>
+    <t>Assigned features module-wise, used schema templates</t>
+  </si>
+  <si>
+    <t>Sprint Review Prep</t>
+  </si>
+  <si>
+    <t>Wed, Apr 9, 2025</t>
+  </si>
+  <si>
+    <t>05:00 PM – 05:30 PM</t>
+  </si>
+  <si>
+    <t>Analytics integration, accessibility rechecks, performance fix</t>
+  </si>
+  <si>
+    <t>Confirmed tracking setup, screenshots finalized</t>
   </si>
 </sst>
 </file>
@@ -197,13 +230,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -226,31 +284,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -265,17 +298,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B76262B-1249-4112-AB4C-07AB5BAD2DE4}" name="Table4" displayName="Table4" ref="A2:H8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2B76262B-1249-4112-AB4C-07AB5BAD2DE4}" name="Table4" displayName="Table4" ref="A2:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:H8" xr:uid="{2B76262B-1249-4112-AB4C-07AB5BAD2DE4}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DDEA65BE-5DFD-46B7-A6F4-5F8A3D78F36F}" name="Sprint" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{72EF1F91-FF40-414A-846C-1AC104632562}" name="Date" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C2D97CD7-CF06-4F5E-A6F0-90E56AD8DF59}" name="Time" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{963A9E15-4FD8-4F95-8845-27A63DA243B6}" name="Duration" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2424C2B0-27F6-4060-8EA7-4F14DE2BBCFC}" name="Meeting Type" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6B44FA8C-28EA-457C-8DBF-372C2CC0C064}" name="Attendees" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{1BD6F09B-5445-4457-8C82-1100DF2B8DFD}" name="Agenda / Discussion Points" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{6F706E06-F91A-4EA0-AE2E-A45D133ECFFE}" name="Decisions / Outcomes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DDEA65BE-5DFD-46B7-A6F4-5F8A3D78F36F}" name="Sprint" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{72EF1F91-FF40-414A-846C-1AC104632562}" name="Meeting Type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C2D97CD7-CF06-4F5E-A6F0-90E56AD8DF59}" name="Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{963A9E15-4FD8-4F95-8845-27A63DA243B6}" name="Time" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{2424C2B0-27F6-4060-8EA7-4F14DE2BBCFC}" name="Duration" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6B44FA8C-28EA-457C-8DBF-372C2CC0C064}" name="Attendees" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{1BD6F09B-5445-4457-8C82-1100DF2B8DFD}" name="Agenda / Discussion Points" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{6F706E06-F91A-4EA0-AE2E-A45D133ECFFE}" name="Decisions / Outcomes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,7 +614,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -605,21 +638,21 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -635,156 +668,156 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>45714</v>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>45720</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>45728</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>45744</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>45751</v>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>45757</v>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
